--- a/100Werte.xlsx
+++ b/100Werte.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\V701----Reichweite-von-Alphastrahlung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/Anfängerpraktikum/V701----Reichweite-von-Alphastrahlung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C7F6C6-F83F-4EA6-9180-DDA0D41F2DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{36C7F6C6-F83F-4EA6-9180-DDA0D41F2DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B89225C-1533-49D7-9B86-43F3CAF2A95E}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{26073264-F091-4866-9BFE-9E9909EC54D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{26073264-F091-4866-9BFE-9E9909EC54D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -394,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A2A792-61BC-46D5-9F76-6389D9499BA3}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -410,7 +410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -418,7 +418,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -427,7 +427,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -436,7 +436,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -445,7 +445,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -454,7 +454,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -463,7 +463,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -472,7 +472,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -481,7 +481,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -490,7 +490,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -499,7 +499,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -508,7 +508,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -517,7 +517,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -526,7 +526,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -535,7 +535,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -544,7 +544,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -553,7 +553,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -562,7 +562,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -571,7 +571,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -580,7 +580,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -589,7 +589,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -598,7 +598,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -607,7 +607,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -616,7 +616,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -625,7 +625,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -634,7 +634,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -643,7 +643,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -652,7 +652,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -661,7 +661,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -670,7 +670,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -679,7 +679,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -688,7 +688,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -697,7 +697,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -706,7 +706,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -715,7 +715,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -724,7 +724,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -733,7 +733,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -742,7 +742,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -751,7 +751,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -760,7 +760,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -769,7 +769,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -778,7 +778,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -787,7 +787,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -796,7 +796,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -805,7 +805,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -814,7 +814,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -823,7 +823,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -832,7 +832,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -841,7 +841,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -850,7 +850,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -859,7 +859,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -868,7 +868,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -877,7 +877,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -886,7 +886,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -895,7 +895,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -904,7 +904,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -913,7 +913,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -922,7 +922,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -931,7 +931,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -940,7 +940,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -949,7 +949,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -958,7 +958,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -967,7 +967,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -976,7 +976,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -985,7 +985,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -994,7 +994,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1003,7 +1003,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" ref="A68:A101" si="1">A67+1</f>
         <v>67</v>
@@ -1012,7 +1012,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -1021,7 +1021,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -1030,7 +1030,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1039,7 +1039,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1048,7 +1048,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1057,7 +1057,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -1066,7 +1066,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -1075,7 +1075,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -1084,7 +1084,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -1093,7 +1093,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -1102,7 +1102,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -1111,7 +1111,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -1120,7 +1120,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -1129,7 +1129,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -1138,7 +1138,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -1147,7 +1147,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -1156,7 +1156,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -1165,7 +1165,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -1174,7 +1174,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -1183,7 +1183,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -1192,7 +1192,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -1201,7 +1201,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -1210,7 +1210,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -1219,7 +1219,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -1228,7 +1228,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -1237,7 +1237,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -1246,7 +1246,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -1255,7 +1255,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -1264,7 +1264,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -1273,7 +1273,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -1282,7 +1282,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -1291,7 +1291,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -1300,7 +1300,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -1309,7 +1309,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C102" s="1">
         <f>SUM(B2:B101)</f>
         <v>244323</v>
@@ -1317,6 +1317,12 @@
       <c r="D102">
         <f>C102/100</f>
         <v>2443.23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D104">
+        <f>_xlfn.VAR.P(B2:B101)</f>
+        <v>8913.1970999999976</v>
       </c>
     </row>
   </sheetData>
